--- a/Project Files/_ClientName_/_ProjectName_/V1I1/Templates/BOM/BOM Reference Grouped PATECH.xlsx
+++ b/Project Files/_ClientName_/_ProjectName_/V1I1/Templates/BOM/BOM Reference Grouped PATECH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa\Desktop\Templates\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PA\Desktop\PATECH-PCB-Template-Project-main\Project Files\_ClientName_\_ProjectName_\V1I1\Templates\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0EBB8-2B63-4F83-BF2C-3A3929914559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE1193-1C9C-407C-B51A-F3457CAE60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -1555,8 +1555,8 @@
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
       <c r="J7" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="72"/>
       <c r="N7" s="43"/>
       <c r="O7" s="1"/>
     </row>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="E8" s="21">
         <f ca="1">TODAY()</f>
-        <v>44943</v>
+        <v>45158</v>
       </c>
       <c r="F8" s="22">
         <f ca="1">NOW()</f>
-        <v>44943.847301967595</v>
+        <v>45158.798960300926</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="19"/>
@@ -1926,9 +1926,8 @@
     <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;LCreated by FEDEVEL&amp;CMotherboard, Processor and Microcontroller Board Design&amp;Rhttp://www.fedevel.com</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
